--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp8a</t>
+  </si>
+  <si>
+    <t>Tgfbr2</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp8a</t>
-  </si>
-  <si>
-    <t>Tgfbr2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H2">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I2">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J2">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N2">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O2">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P2">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q2">
-        <v>9.777124984115998</v>
+        <v>7.793731085387335</v>
       </c>
       <c r="R2">
-        <v>87.99412485704399</v>
+        <v>70.14357976848602</v>
       </c>
       <c r="S2">
-        <v>0.08088973134810859</v>
+        <v>0.04557478186863635</v>
       </c>
       <c r="T2">
-        <v>0.08476139014246002</v>
+        <v>0.05486898378282476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H3">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I3">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J3">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N3">
         <v>124.30001</v>
       </c>
       <c r="O3">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P3">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q3">
-        <v>17.28747965745334</v>
+        <v>12.56152422169222</v>
       </c>
       <c r="R3">
-        <v>155.58731691708</v>
+        <v>113.05371799523</v>
       </c>
       <c r="S3">
-        <v>0.1430256427578774</v>
+        <v>0.07345502687597072</v>
       </c>
       <c r="T3">
-        <v>0.1498713384768835</v>
+        <v>0.08843493074836276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H4">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I4">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J4">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N4">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O4">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P4">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q4">
-        <v>12.90087342197067</v>
+        <v>10.19211584963923</v>
       </c>
       <c r="R4">
-        <v>116.107860797736</v>
+        <v>91.72904264675302</v>
       </c>
       <c r="S4">
-        <v>0.1067336448040215</v>
+        <v>0.05959962584519863</v>
       </c>
       <c r="T4">
-        <v>0.1118422815576821</v>
+        <v>0.07175395624247832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H5">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I5">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J5">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N5">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O5">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P5">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q5">
-        <v>4.256169569466</v>
+        <v>3.583873211749667</v>
       </c>
       <c r="R5">
-        <v>25.537017416796</v>
+        <v>21.503239270498</v>
       </c>
       <c r="S5">
-        <v>0.03521284770373915</v>
+        <v>0.02095713055542548</v>
       </c>
       <c r="T5">
-        <v>0.02459883656842311</v>
+        <v>0.01682065401716554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.417236</v>
+        <v>0.3031743333333334</v>
       </c>
       <c r="H6">
-        <v>1.251708</v>
+        <v>0.9095230000000001</v>
       </c>
       <c r="I6">
-        <v>0.4673765452554602</v>
+        <v>0.2658025016073412</v>
       </c>
       <c r="J6">
-        <v>0.4774473645966479</v>
+        <v>0.3115980757121352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N6">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O6">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P6">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q6">
-        <v>12.27005806869467</v>
+        <v>11.32356933359078</v>
       </c>
       <c r="R6">
-        <v>110.430522618252</v>
+        <v>101.912124002317</v>
       </c>
       <c r="S6">
-        <v>0.1015146786417135</v>
+        <v>0.06621593646211005</v>
       </c>
       <c r="T6">
-        <v>0.1063735178511991</v>
+        <v>0.07971955092130384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.710799</v>
       </c>
       <c r="I7">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J7">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N7">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O7">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P7">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q7">
-        <v>5.552070180572999</v>
+        <v>6.090858902702</v>
       </c>
       <c r="R7">
-        <v>49.96863162515699</v>
+        <v>54.817730124318</v>
       </c>
       <c r="S7">
-        <v>0.0459343074842569</v>
+        <v>0.03561703154009832</v>
       </c>
       <c r="T7">
-        <v>0.04813288031383552</v>
+        <v>0.04288051957327968</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.710799</v>
       </c>
       <c r="I8">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J8">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N8">
         <v>124.30001</v>
       </c>
       <c r="O8">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P8">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q8">
-        <v>9.816924756443333</v>
+        <v>9.816924756443331</v>
       </c>
       <c r="R8">
-        <v>88.35232280798999</v>
+        <v>88.35232280798998</v>
       </c>
       <c r="S8">
-        <v>0.08121900942284981</v>
+        <v>0.05740565070747315</v>
       </c>
       <c r="T8">
-        <v>0.08510642859039833</v>
+        <v>0.06911255717667997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.710799</v>
       </c>
       <c r="I9">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J9">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N9">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O9">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P9">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q9">
-        <v>7.325932188228667</v>
+        <v>7.965214462754334</v>
       </c>
       <c r="R9">
-        <v>65.93338969405801</v>
+        <v>71.686930164789</v>
       </c>
       <c r="S9">
-        <v>0.0606101167309418</v>
+        <v>0.04657755158598665</v>
       </c>
       <c r="T9">
-        <v>0.0635111239114225</v>
+        <v>0.05607625133525743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>0.710799</v>
       </c>
       <c r="I10">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J10">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N10">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O10">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P10">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q10">
-        <v>2.416922376310499</v>
+        <v>2.800823613079</v>
       </c>
       <c r="R10">
-        <v>14.501534257863</v>
+        <v>16.804941678474</v>
       </c>
       <c r="S10">
-        <v>0.0199960829003011</v>
+        <v>0.0163781536494029</v>
       </c>
       <c r="T10">
-        <v>0.01396877581192944</v>
+        <v>0.01314546642003253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.710799</v>
       </c>
       <c r="I11">
-        <v>0.2654059740698596</v>
+        <v>0.207726635104331</v>
       </c>
       <c r="J11">
-        <v>0.2711248224888973</v>
+        <v>0.2435162174217804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N11">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O11">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P11">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q11">
-        <v>6.967715317925666</v>
+        <v>8.849453789235666</v>
       </c>
       <c r="R11">
-        <v>62.709437861331</v>
+        <v>79.64508410312099</v>
       </c>
       <c r="S11">
-        <v>0.05764645753150999</v>
+        <v>0.05174824762137004</v>
       </c>
       <c r="T11">
-        <v>0.06040561386131149</v>
+        <v>0.0623014229165308</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H12">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I12">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J12">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N12">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O12">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P12">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q12">
-        <v>2.797152201781</v>
+        <v>2.508772441522666</v>
       </c>
       <c r="R12">
-        <v>25.17436981602899</v>
+        <v>22.578951973704</v>
       </c>
       <c r="S12">
-        <v>0.0231418633299074</v>
+        <v>0.01467034922398268</v>
       </c>
       <c r="T12">
-        <v>0.02424951194223042</v>
+        <v>0.01766211752761081</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H13">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I13">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J13">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N13">
         <v>124.30001</v>
       </c>
       <c r="O13">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P13">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q13">
-        <v>4.945800720114444</v>
+        <v>4.043506947524444</v>
       </c>
       <c r="R13">
-        <v>44.51220648102999</v>
+        <v>36.39156252771999</v>
       </c>
       <c r="S13">
-        <v>0.04091841847181944</v>
+        <v>0.0236448942231606</v>
       </c>
       <c r="T13">
-        <v>0.04287691372315861</v>
+        <v>0.02846686839701652</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H14">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I14">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J14">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N14">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O14">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P14">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q14">
-        <v>3.690830029869555</v>
+        <v>3.280803389832445</v>
       </c>
       <c r="R14">
-        <v>33.217470268826</v>
+        <v>29.527230508492</v>
       </c>
       <c r="S14">
-        <v>0.03053558689826582</v>
+        <v>0.01918489324398667</v>
       </c>
       <c r="T14">
-        <v>0.03199712437137943</v>
+        <v>0.02309732604565565</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H15">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I15">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J15">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N15">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O15">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P15">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q15">
-        <v>1.2176538708185</v>
+        <v>1.153635177945333</v>
       </c>
       <c r="R15">
-        <v>7.305923224910998</v>
+        <v>6.921811067671999</v>
       </c>
       <c r="S15">
-        <v>0.01007409587639617</v>
+        <v>0.006746020746009751</v>
       </c>
       <c r="T15">
-        <v>0.00703751767318098</v>
+        <v>0.00541450465564212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1193676666666666</v>
+        <v>0.09759066666666666</v>
       </c>
       <c r="H16">
-        <v>0.3581029999999999</v>
+        <v>0.292772</v>
       </c>
       <c r="I16">
-        <v>0.1337124496972265</v>
+        <v>0.08556081594482436</v>
       </c>
       <c r="J16">
-        <v>0.1365936253536395</v>
+        <v>0.1003022373512195</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N16">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O16">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P16">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q16">
-        <v>3.510359128945222</v>
+        <v>3.645013969887555</v>
       </c>
       <c r="R16">
-        <v>31.593232160507</v>
+        <v>32.805125728988</v>
       </c>
       <c r="S16">
-        <v>0.0290424851208377</v>
+        <v>0.02131465850768466</v>
       </c>
       <c r="T16">
-        <v>0.03043255764369003</v>
+        <v>0.02566142072529443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H17">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I17">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J17">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.433081</v>
+        <v>25.707094</v>
       </c>
       <c r="N17">
-        <v>70.29924299999999</v>
+        <v>77.12128200000001</v>
       </c>
       <c r="O17">
-        <v>0.1730718671470679</v>
+        <v>0.1714610720103833</v>
       </c>
       <c r="P17">
-        <v>0.1775303340800033</v>
+        <v>0.1760889686414963</v>
       </c>
       <c r="Q17">
-        <v>1.3237464622305</v>
+        <v>12.928148986788</v>
       </c>
       <c r="R17">
-        <v>7.942478773382999</v>
+        <v>77.568893920728</v>
       </c>
       <c r="S17">
-        <v>0.0109518386925393</v>
+        <v>0.07559890937766595</v>
       </c>
       <c r="T17">
-        <v>0.007650687396489656</v>
+        <v>0.06067734775778102</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H18">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I18">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J18">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.43333666666667</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N18">
         <v>124.30001</v>
       </c>
       <c r="O18">
-        <v>0.3060180152594135</v>
+        <v>0.2763519020015949</v>
       </c>
       <c r="P18">
-        <v>0.3139012791567009</v>
+        <v>0.2838109014192434</v>
       </c>
       <c r="Q18">
-        <v>2.340589904968334</v>
+        <v>20.83690787634</v>
       </c>
       <c r="R18">
-        <v>14.04353942981</v>
+        <v>125.02144725804</v>
       </c>
       <c r="S18">
-        <v>0.01936455644338905</v>
+        <v>0.1218463301949904</v>
       </c>
       <c r="T18">
-        <v>0.01352760683199019</v>
+        <v>0.09779654509718418</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H19">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I19">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J19">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.91984733333334</v>
+        <v>33.61800366666667</v>
       </c>
       <c r="N19">
-        <v>92.75954200000001</v>
+        <v>100.854011</v>
       </c>
       <c r="O19">
-        <v>0.228367567622981</v>
+        <v>0.2242252254391595</v>
       </c>
       <c r="P19">
-        <v>0.2342504951350344</v>
+        <v>0.2302772765155554</v>
       </c>
       <c r="Q19">
-        <v>1.746677635783667</v>
+        <v>16.906561279974</v>
       </c>
       <c r="R19">
-        <v>10.480065814702</v>
+        <v>101.439367679844</v>
       </c>
       <c r="S19">
-        <v>0.01445090299447214</v>
+        <v>0.09886315476398752</v>
       </c>
       <c r="T19">
-        <v>0.01009504837603377</v>
+        <v>0.07934974289216398</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H20">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I20">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J20">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.2008685</v>
+        <v>11.821163</v>
       </c>
       <c r="N20">
-        <v>20.401737</v>
+        <v>23.642326</v>
       </c>
       <c r="O20">
-        <v>0.07534149512036895</v>
+        <v>0.07884474536054051</v>
       </c>
       <c r="P20">
-        <v>0.05152156738618599</v>
+        <v>0.0539818931125397</v>
       </c>
       <c r="Q20">
-        <v>0.5762521619992499</v>
+        <v>5.944886515026</v>
       </c>
       <c r="R20">
-        <v>2.305008647997</v>
+        <v>23.779546060104</v>
       </c>
       <c r="S20">
-        <v>0.004767544922317528</v>
+        <v>0.03476344040970238</v>
       </c>
       <c r="T20">
-        <v>0.002220327068563124</v>
+        <v>0.01860126801969952</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0564905</v>
+        <v>0.502902</v>
       </c>
       <c r="H21">
-        <v>0.112981</v>
+        <v>1.005804</v>
       </c>
       <c r="I21">
-        <v>0.06327913873623937</v>
+        <v>0.4409100473435034</v>
       </c>
       <c r="J21">
-        <v>0.04309509941575341</v>
+        <v>0.3445834695148648</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.40795633333333</v>
+        <v>37.35002633333333</v>
       </c>
       <c r="N21">
-        <v>88.22386900000001</v>
+        <v>112.050079</v>
       </c>
       <c r="O21">
-        <v>0.2172010548501686</v>
+        <v>0.2491170551883219</v>
       </c>
       <c r="P21">
-        <v>0.2227963242420754</v>
+        <v>0.2558409603111652</v>
       </c>
       <c r="Q21">
-        <v>1.661270157248167</v>
+        <v>18.783402943086</v>
       </c>
       <c r="R21">
-        <v>9.967620943489001</v>
+        <v>112.700417658516</v>
       </c>
       <c r="S21">
-        <v>0.01374429568352135</v>
+        <v>0.1098382125971572</v>
       </c>
       <c r="T21">
-        <v>0.00960142974267667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.062692</v>
-      </c>
-      <c r="H22">
-        <v>0.188076</v>
-      </c>
-      <c r="I22">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J22">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>23.433081</v>
-      </c>
-      <c r="N22">
-        <v>70.29924299999999</v>
-      </c>
-      <c r="O22">
-        <v>0.1730718671470679</v>
-      </c>
-      <c r="P22">
-        <v>0.1775303340800033</v>
-      </c>
-      <c r="Q22">
-        <v>1.469066714052</v>
-      </c>
-      <c r="R22">
-        <v>13.221600426468</v>
-      </c>
-      <c r="S22">
-        <v>0.01215412629225576</v>
-      </c>
-      <c r="T22">
-        <v>0.01273586428498764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.062692</v>
-      </c>
-      <c r="H23">
-        <v>0.188076</v>
-      </c>
-      <c r="I23">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J23">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>41.43333666666667</v>
-      </c>
-      <c r="N23">
-        <v>124.30001</v>
-      </c>
-      <c r="O23">
-        <v>0.3060180152594135</v>
-      </c>
-      <c r="P23">
-        <v>0.3139012791567009</v>
-      </c>
-      <c r="Q23">
-        <v>2.597538742306667</v>
-      </c>
-      <c r="R23">
-        <v>23.37784868076</v>
-      </c>
-      <c r="S23">
-        <v>0.02149038816347786</v>
-      </c>
-      <c r="T23">
-        <v>0.02251899153427025</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.062692</v>
-      </c>
-      <c r="H24">
-        <v>0.188076</v>
-      </c>
-      <c r="I24">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J24">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>30.91984733333334</v>
-      </c>
-      <c r="N24">
-        <v>92.75954200000001</v>
-      </c>
-      <c r="O24">
-        <v>0.228367567622981</v>
-      </c>
-      <c r="P24">
-        <v>0.2342504951350344</v>
-      </c>
-      <c r="Q24">
-        <v>1.938427069021333</v>
-      </c>
-      <c r="R24">
-        <v>17.445843621192</v>
-      </c>
-      <c r="S24">
-        <v>0.01603731619527969</v>
-      </c>
-      <c r="T24">
-        <v>0.01680491691851662</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.062692</v>
-      </c>
-      <c r="H25">
-        <v>0.188076</v>
-      </c>
-      <c r="I25">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J25">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>10.2008685</v>
-      </c>
-      <c r="N25">
-        <v>20.401737</v>
-      </c>
-      <c r="O25">
-        <v>0.07534149512036895</v>
-      </c>
-      <c r="P25">
-        <v>0.05152156738618599</v>
-      </c>
-      <c r="Q25">
-        <v>0.6395128480019999</v>
-      </c>
-      <c r="R25">
-        <v>3.837077088011999</v>
-      </c>
-      <c r="S25">
-        <v>0.005290923717615005</v>
-      </c>
-      <c r="T25">
-        <v>0.003696110264089343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.062692</v>
-      </c>
-      <c r="H26">
-        <v>0.188076</v>
-      </c>
-      <c r="I26">
-        <v>0.07022589224121434</v>
-      </c>
-      <c r="J26">
-        <v>0.0717390881450619</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>29.40795633333333</v>
-      </c>
-      <c r="N26">
-        <v>88.22386900000001</v>
-      </c>
-      <c r="O26">
-        <v>0.2172010548501686</v>
-      </c>
-      <c r="P26">
-        <v>0.2227963242420754</v>
-      </c>
-      <c r="Q26">
-        <v>1.843643598449333</v>
-      </c>
-      <c r="R26">
-        <v>16.592792386044</v>
-      </c>
-      <c r="S26">
-        <v>0.01525313787258602</v>
-      </c>
-      <c r="T26">
-        <v>0.01598320514319804</v>
+        <v>0.08815856574803614</v>
       </c>
     </row>
   </sheetData>
